--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/146.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/146.xlsx
@@ -479,13 +479,13 @@
         <v>1.595338546657425</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28389194864322</v>
+        <v>-11.28743996271333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5770667185156678</v>
+        <v>0.5910492979506313</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.23214515999229</v>
+        <v>-5.23564080485103</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>1.819443572824263</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47883633795652</v>
+        <v>-11.4807739987771</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6484721382144418</v>
+        <v>0.6638686863563117</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.116225910631647</v>
+        <v>-5.119944124638697</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>2.039835846610618</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02659210424866</v>
+        <v>-12.02771804229305</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6645625784069231</v>
+        <v>0.6791081268640808</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.811240715933638</v>
+        <v>-4.814356684009969</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>2.241221056851257</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.71471044930694</v>
+        <v>-12.71668738703604</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6763063740559514</v>
+        <v>0.6910483070557349</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.895974099925289</v>
+        <v>-4.898147422197016</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>2.452773308837169</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31712657996328</v>
+        <v>-13.31983668665152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7105165613813816</v>
+        <v>0.7241980178509854</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.195706097829887</v>
+        <v>-4.194711082813916</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>2.686445298666266</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.60221147434187</v>
+        <v>-13.60320648935784</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8212119819081756</v>
+        <v>0.8360717456335346</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.210605138463771</v>
+        <v>-4.209243538968232</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>2.964295736001298</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.17951656814778</v>
+        <v>-14.17979150650745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9041909973190354</v>
+        <v>0.9172047463437111</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.79516018469012</v>
+        <v>-3.792999954721235</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>3.306028571501246</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.97143069013526</v>
+        <v>-14.97292321265922</v>
       </c>
       <c r="F9" t="n">
-        <v>1.127336206953415</v>
+        <v>1.14095220190881</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.429963489223013</v>
+        <v>-3.425747767707977</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>3.719555930090677</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.56806002293556</v>
+        <v>-15.56912049946574</v>
       </c>
       <c r="F10" t="n">
-        <v>1.171247790684564</v>
+        <v>1.185361293147944</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.733413701134661</v>
+        <v>-2.728464810660488</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>4.209608002690019</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.17179847617891</v>
+        <v>-16.17389324463359</v>
       </c>
       <c r="F11" t="n">
-        <v>1.118472717929566</v>
+        <v>1.132573128090105</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.292648233665111</v>
+        <v>-2.285630759341946</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>4.77363407559776</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.645111408513</v>
+        <v>-16.64703597703073</v>
       </c>
       <c r="F12" t="n">
-        <v>1.148964691247946</v>
+        <v>1.162711609231758</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.869976328722826</v>
+        <v>-1.863534915724697</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>5.388350431900121</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.44330983586451</v>
+        <v>-17.44523440438224</v>
       </c>
       <c r="F13" t="n">
-        <v>1.368169117726965</v>
+        <v>1.382963419938116</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.078795375694478</v>
+        <v>-1.071804085976997</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>6.031999016198504</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.25588361173624</v>
+        <v>-18.25772962643692</v>
       </c>
       <c r="F14" t="n">
-        <v>1.573927749187532</v>
+        <v>1.58817217467933</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8757599432249905</v>
+        <v>-0.8703920990598828</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.675526426174622</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.09558463909602</v>
+        <v>-19.09811145354448</v>
       </c>
       <c r="F15" t="n">
-        <v>1.624411668945228</v>
+        <v>1.63815858692904</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4430200573974188</v>
+        <v>-0.4380580746204046</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>7.278903448630694</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.08739204087098</v>
+        <v>-20.09087459342688</v>
       </c>
       <c r="F16" t="n">
-        <v>1.947267857022193</v>
+        <v>1.961538467119674</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1232482251129171</v>
+        <v>0.1284589616439241</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>7.813932480220685</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.80113202259052</v>
+        <v>-20.80458839054074</v>
       </c>
       <c r="F17" t="n">
-        <v>2.012677002019456</v>
+        <v>2.025821674072549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2277640786984163</v>
+        <v>0.232176184756078</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>8.250190371105663</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.71057574718818</v>
+        <v>-21.71458199185775</v>
       </c>
       <c r="F18" t="n">
-        <v>2.132000250118948</v>
+        <v>2.144883076115206</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7855223643616303</v>
+        <v>0.7903796087159106</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>8.556649884278572</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.71496485199404</v>
+        <v>-22.72012321931368</v>
       </c>
       <c r="F19" t="n">
-        <v>2.2316064901388</v>
+        <v>2.244515500740742</v>
       </c>
       <c r="G19" t="n">
-        <v>1.007175051472053</v>
+        <v>1.011338403775722</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>8.716774493632034</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.07568397988927</v>
+        <v>-23.08048885503219</v>
       </c>
       <c r="F20" t="n">
-        <v>2.532650901681449</v>
+        <v>2.545612281494758</v>
       </c>
       <c r="G20" t="n">
-        <v>1.605035060739473</v>
+        <v>1.610114874242063</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>8.713592082820483</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.02748130417991</v>
+        <v>-24.03301934828197</v>
       </c>
       <c r="F21" t="n">
-        <v>2.661191130981515</v>
+        <v>2.672476696031084</v>
       </c>
       <c r="G21" t="n">
-        <v>1.715848311991843</v>
+        <v>1.719828372055728</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>8.537453754397735</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.37074839238713</v>
+        <v>-24.37698032853979</v>
       </c>
       <c r="F22" t="n">
-        <v>2.743515531250289</v>
+        <v>2.755272419202159</v>
       </c>
       <c r="G22" t="n">
-        <v>1.984554735515429</v>
+        <v>1.988927564664565</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>8.190831241437317</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.90742807047517</v>
+        <v>-24.91307085299995</v>
       </c>
       <c r="F23" t="n">
-        <v>2.682793430670364</v>
+        <v>2.693817149663097</v>
       </c>
       <c r="G23" t="n">
-        <v>2.524978812216197</v>
+        <v>2.530451394804039</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.677977621849476</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.43866135058104</v>
+        <v>-25.44535151733317</v>
       </c>
       <c r="F24" t="n">
-        <v>2.568104857776843</v>
+        <v>2.578788176895692</v>
       </c>
       <c r="G24" t="n">
-        <v>2.319796242080666</v>
+        <v>2.324849870977573</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.015215750378307</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.58392045060999</v>
+        <v>-25.58998218682571</v>
       </c>
       <c r="F25" t="n">
-        <v>2.693948072691514</v>
+        <v>2.704448099570578</v>
       </c>
       <c r="G25" t="n">
-        <v>2.229825936952325</v>
+        <v>2.234120212284411</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>6.226157651994928</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.66037949920567</v>
+        <v>-25.66717440438053</v>
       </c>
       <c r="F26" t="n">
-        <v>2.857366196761939</v>
+        <v>2.868573207994456</v>
       </c>
       <c r="G26" t="n">
-        <v>2.231213721053548</v>
+        <v>2.235455627174267</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.334867609993931</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.41743872767461</v>
+        <v>-25.42445620199777</v>
       </c>
       <c r="F27" t="n">
-        <v>2.55935919947857</v>
+        <v>2.569492641878066</v>
       </c>
       <c r="G27" t="n">
-        <v>1.947372595444927</v>
+        <v>1.951090809451977</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.37706298189882</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.50987038573719</v>
+        <v>-25.51729372144845</v>
       </c>
       <c r="F28" t="n">
-        <v>2.825028208742876</v>
+        <v>2.83544968180489</v>
       </c>
       <c r="G28" t="n">
-        <v>1.898328828999821</v>
+        <v>1.903539565530828</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.390333339052445</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.7221358917101</v>
+        <v>-25.73144451903056</v>
       </c>
       <c r="F29" t="n">
-        <v>2.658232270539286</v>
+        <v>2.667344513317127</v>
       </c>
       <c r="G29" t="n">
-        <v>1.79812034304925</v>
+        <v>1.804326094596228</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.40979493185477</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.37862004974889</v>
+        <v>-25.385558970255</v>
       </c>
       <c r="F30" t="n">
-        <v>2.628879327568136</v>
+        <v>2.638541447065329</v>
       </c>
       <c r="G30" t="n">
-        <v>1.926110695629964</v>
+        <v>1.934620692477086</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.481358832692954</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.61526024025921</v>
+        <v>-24.62123033035504</v>
       </c>
       <c r="F31" t="n">
-        <v>2.541815513670657</v>
+        <v>2.550927756448499</v>
       </c>
       <c r="G31" t="n">
-        <v>1.395532030666173</v>
+        <v>1.405167965557683</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6473104964286879</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.73661279529917</v>
+        <v>-24.74465146924399</v>
       </c>
       <c r="F32" t="n">
-        <v>2.522307982436485</v>
+        <v>2.531708255876845</v>
       </c>
       <c r="G32" t="n">
-        <v>1.496473685575881</v>
+        <v>1.508518604190269</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.05975414709189469</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.16773914452333</v>
+        <v>-24.17508392641754</v>
       </c>
       <c r="F33" t="n">
-        <v>2.575960239481879</v>
+        <v>2.585308143710871</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7385864586740424</v>
+        <v>0.7496232699696174</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.6022194139755523</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.52409535221839</v>
+        <v>-23.53005235001138</v>
       </c>
       <c r="F34" t="n">
-        <v>2.55200132528152</v>
+        <v>2.561375414116196</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6708992529823186</v>
+        <v>0.6819884334892605</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.9550392912635067</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.89084684836978</v>
+        <v>-22.89587429266101</v>
       </c>
       <c r="F35" t="n">
-        <v>2.426577064057784</v>
+        <v>2.435924968286777</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7220116032764171</v>
+        <v>0.7338863219538627</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.110548782618058</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.08718893073327</v>
+        <v>-22.09207235969324</v>
       </c>
       <c r="F36" t="n">
-        <v>2.282823578855632</v>
+        <v>2.291385944914121</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7362822133738985</v>
+        <v>0.7494268854269915</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.061173547257697</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.14453003382615</v>
+        <v>-21.14826134013605</v>
       </c>
       <c r="F37" t="n">
-        <v>2.323671563721817</v>
+        <v>2.331684053060954</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6752720821314551</v>
+        <v>0.6884953080015984</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.8162670610648635</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.01231086742756</v>
+        <v>-21.01707646566195</v>
       </c>
       <c r="F38" t="n">
-        <v>2.152869380848659</v>
+        <v>2.161327008484414</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3838505131774745</v>
+        <v>0.3962882008771143</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.4021402587775129</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.16101005975001</v>
+        <v>-20.16504248902526</v>
       </c>
       <c r="F39" t="n">
-        <v>2.391830092315844</v>
+        <v>2.400052058500447</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2214404964258626</v>
+        <v>0.2339043687311859</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1574249095117652</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.64368080526204</v>
+        <v>-19.64773941914298</v>
       </c>
       <c r="F40" t="n">
-        <v>2.228752368119304</v>
+        <v>2.238047903136929</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.09693812407923189</v>
+        <v>-0.08587512817797337</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8289079658395498</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.69784047876438</v>
+        <v>-18.70018400097305</v>
       </c>
       <c r="F41" t="n">
-        <v>2.448650686648934</v>
+        <v>2.457003575861956</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1629102380986895</v>
+        <v>-0.151467565415021</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.569843831664763</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.4213834119585</v>
+        <v>-18.42648941006677</v>
       </c>
       <c r="F42" t="n">
-        <v>2.459831513275768</v>
+        <v>2.468158217883107</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.4087313162549382</v>
+        <v>-0.3978516125934639</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.346668516467342</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.50642782786447</v>
+        <v>-17.50964853436354</v>
       </c>
       <c r="F43" t="n">
-        <v>2.807039384638344</v>
+        <v>2.816806242558271</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.4108129924067727</v>
+        <v>-0.4014258112692551</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.123768414503501</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.05741420960463</v>
+        <v>-17.06054326998381</v>
       </c>
       <c r="F44" t="n">
-        <v>2.742415777811584</v>
+        <v>2.751973158886044</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7373219329765791</v>
+        <v>-0.7281180440788456</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.862802947163847</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.3318780630247</v>
+        <v>-16.33508567722092</v>
       </c>
       <c r="F45" t="n">
-        <v>2.692141334899356</v>
+        <v>2.701148839254464</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7822809009350664</v>
+        <v>-0.7731293812486999</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.540564738345516</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.85736063882918</v>
+        <v>-15.85999219170037</v>
       </c>
       <c r="F46" t="n">
-        <v>2.853857459600356</v>
+        <v>2.86351957909755</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9432245797684049</v>
+        <v>-0.9342039831104557</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>5.137954953795366</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.12949406234342</v>
+        <v>-15.13042361584518</v>
       </c>
       <c r="F47" t="n">
-        <v>2.829270114863595</v>
+        <v>2.838906049755105</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.276174933336341</v>
+        <v>-1.267638751883535</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.63767122376869</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.47876733420111</v>
+        <v>-14.48058716429611</v>
       </c>
       <c r="F48" t="n">
-        <v>2.694969272313169</v>
+        <v>2.704579022598996</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.313330888801159</v>
+        <v>-1.304716153531303</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>6.037108470850046</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.87415169666736</v>
+        <v>-13.8747932195066</v>
       </c>
       <c r="F49" t="n">
-        <v>3.085905435167109</v>
+        <v>3.096798231131425</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.502815787829461</v>
+        <v>-1.494436714010756</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>6.335762548840938</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.27746999465569</v>
+        <v>-13.27745690235285</v>
       </c>
       <c r="F50" t="n">
-        <v>3.140002830509121</v>
+        <v>3.150581411205236</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.465096863342448</v>
+        <v>-1.455722774507772</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>6.534326597341567</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.42125957341249</v>
+        <v>-12.42140358874375</v>
       </c>
       <c r="F51" t="n">
-        <v>3.124711020789985</v>
+        <v>3.135577632148618</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.477730935584713</v>
+        <v>-1.468369939052879</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>6.642903144774697</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.38865973933659</v>
+        <v>-12.39102944615095</v>
       </c>
       <c r="F52" t="n">
-        <v>3.085067527785239</v>
+        <v>3.096012692960922</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.575543530115249</v>
+        <v>-1.566195625886256</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>6.668683533625204</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.59416643368929</v>
+        <v>-11.59445446435181</v>
       </c>
       <c r="F53" t="n">
-        <v>3.357204134653357</v>
+        <v>3.369118130239328</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.719297015317401</v>
+        <v>-1.710590633927653</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>6.620817972195742</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.35456419938286</v>
+        <v>-11.35541519906757</v>
       </c>
       <c r="F54" t="n">
-        <v>3.017380322093515</v>
+        <v>3.028692071748766</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.7889218818297</v>
+        <v>-1.779534700692183</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>6.51371834411037</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.77619862904677</v>
+        <v>-10.7769317980059</v>
       </c>
       <c r="F55" t="n">
-        <v>2.898947350587261</v>
+        <v>2.911044638413016</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.180093706134792</v>
+        <v>-2.170588694271699</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>6.355252687354636</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.22510432552999</v>
+        <v>-10.22468537183906</v>
       </c>
       <c r="F56" t="n">
-        <v>3.116881823690633</v>
+        <v>3.129267142178906</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.451889913129025</v>
+        <v>-2.443406100887586</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>6.157974517028908</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.622714379479335</v>
+        <v>-9.623643932981098</v>
       </c>
       <c r="F57" t="n">
-        <v>3.13536815530315</v>
+        <v>3.14856519656761</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.933555734676127</v>
+        <v>-2.926787014106955</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>5.936157231963884</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.487510168032831</v>
+        <v>-9.489120521282363</v>
       </c>
       <c r="F58" t="n">
-        <v>3.0947820164938</v>
+        <v>3.10881696514013</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.761274121581854</v>
+        <v>-2.752214248015379</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>5.69600261855367</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.889925097125085</v>
+        <v>-8.89080228141548</v>
       </c>
       <c r="F59" t="n">
-        <v>3.196980532476313</v>
+        <v>3.210806004277176</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.127059970676838</v>
+        <v>-3.119623542662738</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>5.452447617431665</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.773927293947393</v>
+        <v>-8.775118693505989</v>
       </c>
       <c r="F60" t="n">
-        <v>2.996458822152436</v>
+        <v>3.009943894079414</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.845431444248469</v>
+        <v>-2.836214463047894</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>5.217857552472783</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.333973549254029</v>
+        <v>-8.335885025468922</v>
       </c>
       <c r="F61" t="n">
-        <v>3.05883055289042</v>
+        <v>3.072498917057182</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.305377135381147</v>
+        <v>-3.29629107720899</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>4.995538478321498</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.960175210819909</v>
+        <v>-7.96230925618311</v>
       </c>
       <c r="F62" t="n">
-        <v>2.872815114115176</v>
+        <v>2.885331355631866</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.42175461534125</v>
+        <v>-3.413218433888445</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>4.799316766450772</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.76858245103409</v>
+        <v>-7.770978342454125</v>
       </c>
       <c r="F63" t="n">
-        <v>3.154613840480487</v>
+        <v>3.168936819789336</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.401998330353086</v>
+        <v>-3.393134841329237</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>4.634544474779748</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.502507580381691</v>
+        <v>-7.504602348836366</v>
       </c>
       <c r="F64" t="n">
-        <v>3.011567339631788</v>
+        <v>3.025942688152004</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.729397547516129</v>
+        <v>-3.721463611994043</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>4.497455233662119</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.217069193826378</v>
+        <v>-7.219425808337889</v>
       </c>
       <c r="F65" t="n">
-        <v>3.110126195424302</v>
+        <v>3.12497286684682</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.766749887523574</v>
+        <v>-3.757781660076992</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>4.394452677037157</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.002316150313546</v>
+        <v>-7.004135980408546</v>
       </c>
       <c r="F66" t="n">
-        <v>2.95985274340697</v>
+        <v>2.974228091927186</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.819119098890478</v>
+        <v>-3.810831671191666</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>4.321711538851106</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.094852546798866</v>
+        <v>-7.097785222635412</v>
       </c>
       <c r="F67" t="n">
-        <v>2.958726805362582</v>
+        <v>2.973023600065747</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.705346987195879</v>
+        <v>-3.698172405238613</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>4.269278788308283</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.786987045475677</v>
+        <v>-6.789592413741181</v>
       </c>
       <c r="F68" t="n">
-        <v>2.925708017595749</v>
+        <v>2.940135735327331</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.680995303910268</v>
+        <v>-3.672930445359765</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>4.23711108101651</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.958378381976713</v>
+        <v>-6.961834749926929</v>
       </c>
       <c r="F69" t="n">
-        <v>2.686668752311514</v>
+        <v>2.700022901210075</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.722982319123684</v>
+        <v>-3.714851999058972</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>4.216864820587206</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.712164534735213</v>
+        <v>-6.715031749057551</v>
       </c>
       <c r="F70" t="n">
-        <v>2.749721282797267</v>
+        <v>2.763651493020864</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.528758006466678</v>
+        <v>-3.521334670755419</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>4.198812831307126</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.630416195791475</v>
+        <v>-6.634042763678633</v>
       </c>
       <c r="F71" t="n">
-        <v>2.658755962652954</v>
+        <v>2.671822080888997</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.521033547790059</v>
+        <v>-3.514160088798153</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>4.182743075408092</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.801126732544741</v>
+        <v>-6.805421007876827</v>
       </c>
       <c r="F72" t="n">
-        <v>2.802771293911941</v>
+        <v>2.816544396501437</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.393998933316791</v>
+        <v>-3.387033828204993</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>4.16257660627268</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.947236832258405</v>
+        <v>-6.951963153584267</v>
       </c>
       <c r="F73" t="n">
-        <v>2.562527536766268</v>
+        <v>2.574886670648857</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.311150840934348</v>
+        <v>-3.304447581879385</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>4.134045044429698</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.219726931303249</v>
+        <v>-7.224466344931954</v>
       </c>
       <c r="F74" t="n">
-        <v>2.695152564552953</v>
+        <v>2.70787828291511</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.279087791274961</v>
+        <v>-3.27255473215694</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>4.101028314234486</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.388984222441084</v>
+        <v>-7.394260420486299</v>
       </c>
       <c r="F75" t="n">
-        <v>2.25072125228772</v>
+        <v>2.262897093930525</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.015146965985764</v>
+        <v>-3.008482983839325</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>4.062085862520251</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.824957907070561</v>
+        <v>-7.830116274390202</v>
       </c>
       <c r="F76" t="n">
-        <v>2.4960186383303</v>
+        <v>2.508796725903824</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.940664855119184</v>
+        <v>-2.93418416521253</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>4.019101607450391</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.148468710289613</v>
+        <v>-8.153090293192742</v>
       </c>
       <c r="F77" t="n">
-        <v>2.346085586186852</v>
+        <v>2.358104320195557</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.812844702475413</v>
+        <v>-2.806730597048327</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>3.977118356600204</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.502497671432728</v>
+        <v>-8.506909777490389</v>
       </c>
       <c r="F78" t="n">
-        <v>2.243284824273619</v>
+        <v>2.254570389323187</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.647462732978729</v>
+        <v>-2.641440273671535</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>3.93359478016219</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.964721423259867</v>
+        <v>-8.968819314049327</v>
       </c>
       <c r="F79" t="n">
-        <v>2.352526999184982</v>
+        <v>2.365566932815341</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.363084822953597</v>
+        <v>-2.357546778851547</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.888187993408912</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.364756736588806</v>
+        <v>-9.36820001223618</v>
       </c>
       <c r="F80" t="n">
-        <v>2.065753197739814</v>
+        <v>2.077929039382619</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.815473071992721</v>
+        <v>-1.80947679729121</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.839053104596885</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.00735314466641</v>
+        <v>-10.00969666687507</v>
       </c>
       <c r="F81" t="n">
-        <v>2.209454313730599</v>
+        <v>2.221630155373405</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.917069342044515</v>
+        <v>-1.911256359582789</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.777784129453801</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.66473076265231</v>
+        <v>-10.6667338849871</v>
       </c>
       <c r="F82" t="n">
-        <v>2.18821859852132</v>
+        <v>2.200656286220959</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.692837471274273</v>
+        <v>-1.686788827361395</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.699711360836562</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.26626970901826</v>
+        <v>-11.26752657009106</v>
       </c>
       <c r="F83" t="n">
-        <v>1.873924776502844</v>
+        <v>1.884581911016008</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.291676219900944</v>
+        <v>-1.284855130120405</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.596103234570451</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.15439916458959</v>
+        <v>-12.15458245682937</v>
       </c>
       <c r="F84" t="n">
-        <v>1.930274047933632</v>
+        <v>1.941873828251402</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.144387812931526</v>
+        <v>-1.137802384602138</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.454452449929068</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.78949368313888</v>
+        <v>-12.78855103733427</v>
       </c>
       <c r="F85" t="n">
-        <v>1.851694046277593</v>
+        <v>1.863293826595362</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8416544943222941</v>
+        <v>-0.8354225581696325</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.26796861656264</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.58682801850284</v>
+        <v>-13.58381678884924</v>
       </c>
       <c r="F86" t="n">
-        <v>1.816397197816299</v>
+        <v>1.82823263958522</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6337225405900007</v>
+        <v>-0.628066665762375</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.026950805768328</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.41394734283172</v>
+        <v>-14.41016366731047</v>
       </c>
       <c r="F87" t="n">
-        <v>1.831872299775219</v>
+        <v>1.844414725897593</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2428911161587941</v>
+        <v>-0.2369472106686505</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.723624232248767</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.60957571524667</v>
+        <v>-15.60551710136574</v>
       </c>
       <c r="F88" t="n">
-        <v>1.854233953028888</v>
+        <v>1.866854932968312</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0343907657261223</v>
+        <v>0.04045250194184147</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.35813141769575</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.55351765783228</v>
+        <v>-16.54656564502332</v>
       </c>
       <c r="F89" t="n">
-        <v>1.597467709696956</v>
+        <v>1.608831828563574</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2200788969303231</v>
+        <v>0.225486018003956</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.928764293585715</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.95523196927884</v>
+        <v>-17.94750751060222</v>
       </c>
       <c r="F90" t="n">
-        <v>1.556881570887605</v>
+        <v>1.569109781741777</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6792783268010233</v>
+        <v>0.6854448014394762</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.44062903935167</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.10893878799459</v>
+        <v>-19.09905409934908</v>
       </c>
       <c r="F91" t="n">
-        <v>1.249356469438301</v>
+        <v>1.260890788241862</v>
       </c>
       <c r="G91" t="n">
-        <v>0.650134860675341</v>
+        <v>0.6571392426956645</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.901758619204723</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.39427561948104</v>
+        <v>-20.38220451626097</v>
       </c>
       <c r="F92" t="n">
-        <v>1.042406438419137</v>
+        <v>1.052801726875468</v>
       </c>
       <c r="G92" t="n">
-        <v>1.145469046389205</v>
+        <v>1.15452891995568</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.3177373756516905</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.99175913531993</v>
+        <v>-21.97818241727306</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9029079516405463</v>
+        <v>0.913813839907704</v>
       </c>
       <c r="G93" t="n">
-        <v>1.143753954716939</v>
+        <v>1.152604351437946</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2981030129677261</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.62848028277547</v>
+        <v>-23.61284807318245</v>
       </c>
       <c r="F94" t="n">
-        <v>1.006127667244715</v>
+        <v>1.01732158617439</v>
       </c>
       <c r="G94" t="n">
-        <v>1.303597880111573</v>
+        <v>1.313705137905385</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.9349920309877737</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.30552572298353</v>
+        <v>-25.28639786853177</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2868627337259678</v>
+        <v>0.2973365759993487</v>
       </c>
       <c r="G95" t="n">
-        <v>1.278303551021358</v>
+        <v>1.289562931465242</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.585272531295323</v>
       </c>
       <c r="E96" t="n">
-        <v>-27.0751992057968</v>
+        <v>-27.05586187449957</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4482253662502416</v>
+        <v>0.4614093152118597</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9878246278719814</v>
+        <v>0.9993065774641753</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.229168418214016</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.99115298826068</v>
+        <v>-28.9696030577832</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1741172493312071</v>
+        <v>-0.1634470225152003</v>
       </c>
       <c r="G97" t="n">
-        <v>1.161638040398737</v>
+        <v>1.173957897372801</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.862013080967352</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.22138750044019</v>
+        <v>-31.19841050895296</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4491341628245049</v>
+        <v>-0.4363953521595054</v>
       </c>
       <c r="G98" t="n">
-        <v>1.032914518858886</v>
+        <v>1.046582883025648</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.46298006158117</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.40452899929801</v>
+        <v>-33.37868479348845</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4204227426925996</v>
+        <v>-0.4081290703242188</v>
       </c>
       <c r="G99" t="n">
-        <v>0.653002074997679</v>
+        <v>0.6673774235178942</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.030144040972411</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.37992183666332</v>
+        <v>-35.35160318561667</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4920769161453664</v>
+        <v>-0.4797046899599352</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4586075624037304</v>
+        <v>0.4732054800722549</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.529002373435545</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.20614097545001</v>
+        <v>-37.17375061821958</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8465641078879413</v>
+        <v>-0.8338907587371506</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1071763049014617</v>
+        <v>-0.09253911032441194</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.9869267609185</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.51217992108312</v>
+        <v>-39.47851961047704</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7567509103937006</v>
+        <v>-0.7424410233876939</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6435941369326621</v>
+        <v>-0.6297293882232743</v>
       </c>
     </row>
   </sheetData>
